--- a/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A89BB0B9-E50E-4A8F-BE26-8B462EE6DB98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D159C9BA-B69C-441D-9A7E-8BC134E7E1FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>Wg</t>
   </si>
@@ -79,34 +79,28 @@
     <t>MOXA Event Logger</t>
   </si>
   <si>
-    <t>PROFILE Communicator</t>
-  </si>
-  <si>
     <t>PX-PR</t>
   </si>
   <si>
-    <t>RS800</t>
-  </si>
-  <si>
     <t>Zettler Printer</t>
   </si>
   <si>
-    <t>NGC-3475/T1730</t>
-  </si>
-  <si>
     <t>Germany Market</t>
   </si>
   <si>
     <t>Belgium Market</t>
   </si>
   <si>
-    <t>NGC-3478/T2265/T2264/T2268</t>
-  </si>
-  <si>
     <t>Czech Market</t>
   </si>
   <si>
     <t>NGC-3477/T1734/T1737/T1735</t>
+  </si>
+  <si>
+    <t>NGC-3478/T2265/T2264/T2267/T2268</t>
+  </si>
+  <si>
+    <t>NGC-3475/T1730/T1746</t>
   </si>
 </sst>
 </file>
@@ -528,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2CD2B-2CE0-43F6-8953-9B0019F38FA2}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -577,7 +571,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -630,21 +624,11 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -660,10 +644,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0AFF44-8AD7-492C-B27F-C4CAE9E4FBB0}">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -687,7 +671,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -709,7 +693,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -752,26 +736,21 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
         <v>9</v>
       </c>
     </row>
@@ -789,7 +768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4876EAC9-B20F-4107-98FE-E23643A7E1E2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -813,7 +792,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -835,7 +814,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -878,12 +857,12 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">

--- a/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D159C9BA-B69C-441D-9A7E-8BC134E7E1FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA340A2-059B-482C-8600-47110897BB4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="16" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
   <si>
     <t>Wg</t>
   </si>
@@ -101,6 +102,12 @@
   </si>
   <si>
     <t>NGC-3475/T1730/T1746</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2347</t>
   </si>
 </sst>
 </file>
@@ -524,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3A2CD2B-2CE0-43F6-8953-9B0019F38FA2}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -647,7 +654,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -883,4 +890,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B7EF9C-78A5-4EC7-82E5-BAAA4E8E7211}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA340A2-059B-482C-8600-47110897BB4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40433A8-B86F-4497-B9DA-E60000594A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
     <sheet name="Belgium" sheetId="14" r:id="rId2"/>
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="17" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -108,6 +109,12 @@
   </si>
   <si>
     <t>NGC-3476/T2347</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2410</t>
   </si>
 </sst>
 </file>
@@ -654,7 +661,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -896,7 +903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B7EF9C-78A5-4EC7-82E5-BAAA4E8E7211}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -1012,4 +1019,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5666547F-E59D-4BF6-8917-749909745A88}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40433A8-B86F-4497-B9DA-E60000594A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2C6C86-BB5B-4273-BC37-AD5B7C5A3CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="15" r:id="rId3"/>
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -115,6 +116,12 @@
   </si>
   <si>
     <t>NGC-3479/T2410</t>
+  </si>
+  <si>
+    <t>NGC-2930/T3224</t>
+  </si>
+  <si>
+    <t>Slovakia Market</t>
   </si>
 </sst>
 </file>
@@ -1025,6 +1032,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5666547F-E59D-4BF6-8917-749909745A88}">
   <dimension ref="A1:D15"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CD251E-DFCE-4E6F-8A40-3290D721E77E}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -1050,14 +1179,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1067,19 +1196,19 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C2C6C86-BB5B-4273-BC37-AD5B7C5A3CA2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357CA94F-CDEF-485E-9A2E-B0F5C96A346E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="16" r:id="rId4"/>
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
+    <sheet name="Italy" sheetId="19" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -122,6 +123,12 @@
   </si>
   <si>
     <t>Slovakia Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3145/T2159 </t>
+  </si>
+  <si>
+    <t>Italy Market</t>
   </si>
 </sst>
 </file>
@@ -1154,6 +1161,128 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CD251E-DFCE-4E6F-8A40-3290D721E77E}">
   <dimension ref="A1:D15"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BD27F0-8059-43FC-B156-0593BD531A47}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
@@ -1179,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1201,7 +1330,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357CA94F-CDEF-485E-9A2E-B0F5C96A346E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A380CBF-827D-454E-85C0-95FC195C34B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="17" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
+    <sheet name="Spain" sheetId="20" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -129,6 +130,12 @@
   </si>
   <si>
     <t>Italy Market</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3103/T2037 </t>
   </si>
 </sst>
 </file>
@@ -1283,8 +1290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50BD27F0-8059-43FC-B156-0593BD531A47}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1399,4 +1406,125 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958968EF-3F7C-49B2-A3D7-78D353AF0773}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B4:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A380CBF-827D-454E-85C0-95FC195C34B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35E607C-9318-4035-A453-1E83364524B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="18" r:id="rId6"/>
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="21" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -136,6 +137,12 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-3103/T2037 </t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3191/T3300 </t>
   </si>
 </sst>
 </file>
@@ -1412,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{958968EF-3F7C-49B2-A3D7-78D353AF0773}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B4:B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1527,4 +1534,125 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A35FF6C-40C6-4351-9B23-C3EDAAC423B4}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35E607C-9318-4035-A453-1E83364524B2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5984D600-912C-42A8-9976-BCD639301575}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="19" r:id="rId7"/>
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Turkey" sheetId="21" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="22" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="36">
   <si>
     <t>Wg</t>
   </si>
@@ -143,6 +144,12 @@
   </si>
   <si>
     <t xml:space="preserve">NGC-3191/T3300 </t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2418</t>
   </si>
 </sst>
 </file>
@@ -684,6 +691,127 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B709AE7-A640-4699-AC5B-3FB3F52B9110}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C0AFF44-8AD7-492C-B27F-C4CAE9E4FBB0}">
   <dimension ref="A1:D15"/>
@@ -1540,8 +1668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A35FF6C-40C6-4351-9B23-C3EDAAC423B4}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5984D600-912C-42A8-9976-BCD639301575}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E296D05D-C05B-4EF2-BA52-14E85B85ABC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="20" r:id="rId8"/>
     <sheet name="Turkey" sheetId="21" r:id="rId9"/>
     <sheet name="Croatia" sheetId="22" r:id="rId10"/>
+    <sheet name="Greece" sheetId="23" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="38">
   <si>
     <t>Wg</t>
   </si>
@@ -150,6 +151,12 @@
   </si>
   <si>
     <t>NGC-3139/T2418</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3169</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -695,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B709AE7-A640-4699-AC5B-3FB3F52B9110}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -742,6 +749,127 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>35</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3861C60-3171-4DCC-96E5-AFD4B78E2229}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E296D05D-C05B-4EF2-BA52-14E85B85ABC7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818EAE4C-3BAE-4577-B9B7-EE2189A3B8CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="21" r:id="rId9"/>
     <sheet name="Croatia" sheetId="22" r:id="rId10"/>
     <sheet name="Greece" sheetId="23" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="24" r:id="rId12"/>
+    <sheet name="Austria" sheetId="25" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="26" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="44">
   <si>
     <t>Wg</t>
   </si>
@@ -157,6 +160,24 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2179</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2275</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2754</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -823,7 +844,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3861C60-3171-4DCC-96E5-AFD4B78E2229}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
@@ -870,6 +891,372 @@
       </c>
       <c r="B4" s="3" t="s">
         <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{052A464A-29A2-48BA-92FE-72911A082041}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69CFEDA4-9ED0-40DD-91AF-430D9349C63E}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EC9383-2C5B-4D6A-B004-61C36ED82F84}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{818EAE4C-3BAE-4577-B9B7-EE2189A3B8CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B88C61-508A-469A-8429-65BDB47BF2DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="3" activeTab="13" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="24" r:id="rId12"/>
     <sheet name="Austria" sheetId="25" r:id="rId13"/>
     <sheet name="Denmark" sheetId="26" r:id="rId14"/>
+    <sheet name="Russia" sheetId="28" r:id="rId15"/>
+    <sheet name="Finland" sheetId="29" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="30" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="50">
   <si>
     <t>Wg</t>
   </si>
@@ -178,6 +181,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-2929/T2902 </t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NGC-3130/T2945 </t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2994</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -1209,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7EC9383-2C5B-4D6A-B004-61C36ED82F84}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1264,6 +1285,369 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11EC2C95-FC40-4FD1-8A70-097D5CAF4609}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F204AD59-B65D-469A-BE19-055A5675B785}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6DA367-CE33-4B01-8F79-69BAE679EAB7}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B88C61-508A-469A-8429-65BDB47BF2DE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38700D93-4102-4325-8E9B-195F0571E98E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="28" r:id="rId15"/>
     <sheet name="Finland" sheetId="29" r:id="rId16"/>
     <sheet name="Hungary" sheetId="30" r:id="rId17"/>
+    <sheet name="Norway" sheetId="31" r:id="rId18"/>
+    <sheet name="Poland" sheetId="32" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="54">
   <si>
     <t>Wg</t>
   </si>
@@ -199,6 +201,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3063</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/T3106</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1594,7 +1608,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B6DA367-CE33-4B01-8F79-69BAE679EAB7}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -1648,6 +1662,248 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D468AD-2767-464E-ADF9-DACA6D3DFAD3}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FC0A30-ED48-4E55-ACCF-AEEBD1FCD1D7}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
+++ b/Test Data/Gallery_RBus_Printers_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38700D93-4102-4325-8E9B-195F0571E98E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD0FFEC-8F6A-426E-B69B-4F632D5F9A30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="9" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="30" r:id="rId17"/>
     <sheet name="Norway" sheetId="31" r:id="rId18"/>
     <sheet name="Poland" sheetId="32" r:id="rId19"/>
+    <sheet name="UK" sheetId="33" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="56">
   <si>
     <t>Wg</t>
   </si>
@@ -213,6 +214,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3345</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1729,7 +1736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D468AD-2767-464E-ADF9-DACA6D3DFAD3}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2089,6 +2096,127 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C75239E4-72B4-493F-BAAC-80C8F22FFC9C}">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4876EAC9-B20F-4107-98FE-E23643A7E1E2}">
   <dimension ref="A1:D15"/>
